--- a/Output/UJIIndoorLoc-classification-machine-learning/results/TopModelMetrics.xlsx
+++ b/Output/UJIIndoorLoc-classification-machine-learning/results/TopModelMetrics.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>RF_full_data</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>F1 (weighted)</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>MSE (Incorrect Predictions Only)</t>
   </si>
 </sst>
 </file>
@@ -399,7 +405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +444,28 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8748746238716149</v>
+        <v>0.8881644934804414</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8419047619047619</v>
+        <v>0.8828571428571429</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8672985781990521</v>
+        <v>0.8952080042127436</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8084252758274825</v>
+        <v>0.8635907723169508</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7685714285714286</v>
+        <v>0.8447619047619047</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8326923076923077</v>
+        <v>0.8932692307692308</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7993680884676145</v>
+        <v>0.8741442864665614</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +473,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9061756047721533</v>
+        <v>0.9296036563108623</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8649338624338624</v>
+        <v>0.9148156974896727</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8955881627171219</v>
+        <v>0.9399505581229471</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9166726568033974</v>
+        <v>0.9495760243865173</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8437257372338469</v>
+        <v>0.9062978818382954</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7978979591836735</v>
+        <v>0.8791920362292499</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8567667065410576</v>
+        <v>0.9227859071553453</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8447903546050537</v>
+        <v>0.9319687764636794</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +502,28 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8799495586380832</v>
+        <v>0.891742195367573</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8419047619047619</v>
+        <v>0.8836987607244995</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8940719144800777</v>
+        <v>0.9250243427458618</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8672985781990521</v>
+        <v>0.9009009009009009</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8147586555471317</v>
+        <v>0.8661971830985915</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7700381679389313</v>
+        <v>0.8463740458015268</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8415937803692906</v>
+        <v>0.905458089668616</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8027498677948176</v>
+        <v>0.88016967126193</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +531,86 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8754100459768152</v>
+        <v>0.8945768713223939</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8376590552304838</v>
+        <v>0.883600474305908</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8806899575483781</v>
+        <v>0.9242158683413232</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8720701681708667</v>
+        <v>0.9075915395287116</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8088315349419098</v>
+        <v>0.869786121324346</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7636131751846038</v>
+        <v>0.8479572776104722</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8272289776844581</v>
+        <v>0.9043628754521197</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8019320092726301</v>
+        <v>0.8883399788422311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.074460241704641</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4703413979254519</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.348573010698216</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.086155521766039</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.239227776674589</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.7519485719122052</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.483851260126936</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.433075265698639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9.60750547963702</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.015109494485565</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.58351034584605</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10.36487103434024</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.084633039298277</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.843840493912978</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13.90275054533346</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.38665242494442</v>
       </c>
     </row>
   </sheetData>
